--- a/results/Distributions/fitParameters.xlsx
+++ b/results/Distributions/fitParameters.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="9765" windowHeight="6465"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DWELTIME-END" sheetId="1" r:id="rId1"/>
+    <sheet name="TRPMILES-END" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Home</t>
   </si>
@@ -136,13 +137,16 @@
   <si>
     <t>1:10AM</t>
   </si>
+  <si>
+    <t>k++ Trip Miles v. Endtime Clustering</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -168,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +185,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -208,26 +218,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -236,13 +314,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -251,10 +329,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -269,6 +347,51 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,6 +535,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BF8A-492E-9D6A-1D6F6603C0E2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -427,6 +555,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BF8A-492E-9D6A-1D6F6603C0E2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -442,6 +575,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BF8A-492E-9D6A-1D6F6603C0E2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -457,6 +595,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BF8A-492E-9D6A-1D6F6603C0E2}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -518,7 +661,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$K$32:$N$32</c:f>
+              <c:f>'DWELTIME-END'!$K$29:$N$29</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -538,7 +681,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$31:$N$31</c:f>
+              <c:f>'DWELTIME-END'!$K$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -874,7 +1017,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$W$32:$Z$32</c:f>
+              <c:f>'DWELTIME-END'!$W$29:$Z$29</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -894,7 +1037,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$W$31:$Z$31</c:f>
+              <c:f>'DWELTIME-END'!$W$28:$Z$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1230,7 +1373,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$Q$32:$T$32</c:f>
+              <c:f>'DWELTIME-END'!$Q$29:$T$29</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1250,7 +1393,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$31:$T$31</c:f>
+              <c:f>'DWELTIME-END'!$Q$28:$T$28</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3052,7 +3195,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>71719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3082,7 +3225,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3114,7 +3257,7 @@
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>71719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3402,17 +3545,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -3421,734 +3564,1010 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="7">
         <v>7.4015700000000004E-2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="8">
         <v>0.23968500000000001</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>0.15070900000000001</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="8">
         <v>0.201102</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="7">
         <v>0.17937</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="8">
         <v>0.15511800000000001</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <f>SUM(C2:H2)</f>
         <v>0.99999970000000005</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>520.92978723399995</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="14">
         <v>928.18725361400004</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <v>731.735632184</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="14">
         <v>730.81989036799996</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="9">
         <v>1090.9376646200001</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="14">
         <v>508.57563451800002</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>98.457536834600006</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="14">
         <v>50.052873704200003</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <v>83.973039628699993</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="14">
         <v>57.822904737499996</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="9">
         <v>74.606998274700004</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="14">
         <v>73.708126649899995</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>0.15892899999999999</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="16">
         <v>0.176042</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>0.126059</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="16">
         <v>4.5747200000000002E-2</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="12">
         <v>0.148424</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="16">
         <v>0.34479799999999999</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <f>SUM(C6:H6)</f>
         <v>0.99999919999999998</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>580.45735607699999</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>483.76997112599997</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="9">
         <v>959.32795698899997</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>851.88888888899999</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <v>776.08561643799999</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <v>455.37395577400002</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>100.064429107</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="14">
         <v>72.450281801399996</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <v>115.12942680899999</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <v>107.777800687</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="9">
         <v>64.151046952300007</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="14">
         <v>72.798353046100004</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="12">
         <v>0.13996600000000001</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="16">
         <v>0.21359</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>0.23194799999999999</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="16">
         <v>0.150621</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="12">
         <v>5.0091999999999998E-2</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="16">
         <v>0.213782</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="17">
         <f>SUM(C10:H10)</f>
         <v>0.99999900000000008</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>477.76013143500001</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>983.196303607</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>651.68869795099999</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <v>1161.19363868</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <v>516.44452945700004</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="14">
         <v>809.47077805699996</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>74.328925207099999</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <v>51.930683077899999</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>48.152293218399997</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="10">
         <v>72.795135244500003</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <v>97.775881356499994</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="10">
         <v>47.823263084799997</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="W15" s="23"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="38"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10">
+      <c r="D17" s="16">
         <v>0.122047</v>
       </c>
-      <c r="D17" s="11">
+      <c r="E17" s="16">
         <v>0.331181</v>
       </c>
-      <c r="E17" s="10">
+      <c r="F17" s="16">
         <v>0.20614199999999999</v>
       </c>
-      <c r="F17" s="11">
+      <c r="G17" s="35">
         <v>0.34062999999999999</v>
       </c>
-      <c r="G17" s="9">
-        <f>SUM(C17:F17)</f>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="14">
+        <v>579.13161290300002</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1029.54921541</v>
+      </c>
+      <c r="F18" s="14">
+        <v>544.70053475899999</v>
+      </c>
+      <c r="G18" s="31">
+        <v>789.46324549200006</v>
+      </c>
+      <c r="H18" s="37"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="14">
+        <v>117.330603084</v>
+      </c>
+      <c r="E19" s="14">
+        <v>89.657059561099999</v>
+      </c>
+      <c r="F19" s="14">
+        <v>88.210607283399995</v>
+      </c>
+      <c r="G19" s="31">
+        <v>72.567483627900003</v>
+      </c>
+      <c r="H19" s="37"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.164521</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0.37936300000000001</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0.195358</v>
+      </c>
+      <c r="G20" s="35">
+        <v>0.26075900000000002</v>
+      </c>
+      <c r="H20" s="37"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="12">
-        <v>579.13161290300002</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1029.54921541</v>
-      </c>
-      <c r="E18" s="12">
-        <v>544.70053475899999</v>
-      </c>
-      <c r="F18" s="17">
-        <v>789.46324549200006</v>
-      </c>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
+      <c r="D21" s="14">
+        <v>789.90178698600005</v>
+      </c>
+      <c r="E21" s="14">
+        <v>464.40959911800002</v>
+      </c>
+      <c r="F21" s="14">
+        <v>876.97240844400005</v>
+      </c>
+      <c r="G21" s="31">
+        <v>508.08057902500002</v>
+      </c>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="12">
-        <v>117.330603084</v>
-      </c>
-      <c r="D19" s="17">
-        <v>89.657059561099999</v>
-      </c>
-      <c r="E19" s="12">
-        <v>88.210607283399995</v>
-      </c>
-      <c r="F19" s="17">
-        <v>72.567483627900003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="21">
-        <f>C18/60</f>
-        <v>9.6521935483833339</v>
-      </c>
-      <c r="D20" s="22">
-        <f>D18/60</f>
-        <v>17.159153590166667</v>
-      </c>
-      <c r="E20" s="21">
-        <f t="shared" ref="E20:F20" si="0">E18/60</f>
-        <v>9.0783422459833325</v>
-      </c>
-      <c r="F20" s="22">
-        <f t="shared" si="0"/>
-        <v>13.157720758200002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="D22" s="14">
+        <v>113.942885717</v>
+      </c>
+      <c r="E22" s="14">
+        <v>86.456116869699997</v>
+      </c>
+      <c r="F22" s="14">
+        <v>139.64108492899999</v>
+      </c>
+      <c r="G22" s="31">
+        <v>82.479718039000005</v>
+      </c>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0.29503299999999999</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.29936400000000002</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0.354821</v>
+      </c>
+      <c r="G23" s="35">
+        <v>5.0781800000000002E-2</v>
+      </c>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1088.3077422700001</v>
+      </c>
+      <c r="E24" s="14">
+        <v>557.20304698500001</v>
+      </c>
+      <c r="F24" s="14">
+        <v>811.03542881800001</v>
+      </c>
+      <c r="G24" s="31">
+        <v>515.617358491</v>
+      </c>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="15">
+        <v>94.145722080400006</v>
+      </c>
+      <c r="E25" s="15">
+        <v>92.485554389699999</v>
+      </c>
+      <c r="F25" s="15">
+        <v>77.587652701500005</v>
+      </c>
+      <c r="G25" s="34">
+        <v>101.31600853499999</v>
+      </c>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K28" s="7">
+        <v>0.122047</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0.331181</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0.20614199999999999</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0.34062999999999999</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0.15909899999999999</v>
+      </c>
+      <c r="R28" s="8">
+        <v>0.277194</v>
+      </c>
+      <c r="S28" s="7">
+        <v>0.37766899999999998</v>
+      </c>
+      <c r="T28" s="8">
+        <v>0.18603900000000001</v>
+      </c>
+      <c r="V28" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="W28" s="12">
+        <v>0.29503299999999999</v>
+      </c>
+      <c r="X28" s="16">
+        <v>0.29936400000000002</v>
+      </c>
+      <c r="Y28" s="12">
+        <v>0.354821</v>
+      </c>
+      <c r="Z28" s="16">
+        <v>5.0781800000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0.164521</v>
+      </c>
+      <c r="E29">
+        <v>0.37936300000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.195358</v>
+      </c>
+      <c r="G29">
+        <v>0.26075900000000002</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+      <c r="M29" t="s">
+        <v>35</v>
+      </c>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="15">
-        <v>0.15909899999999999</v>
-      </c>
-      <c r="D21" s="19">
-        <v>0.277194</v>
-      </c>
-      <c r="E21" s="15">
-        <v>0.37766899999999998</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0.18603900000000001</v>
-      </c>
-      <c r="G21" s="9">
-        <f>SUM(C21:F21)</f>
-        <v>1.0000009999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="12">
-        <v>783.68264110799998</v>
-      </c>
-      <c r="D22" s="17">
-        <v>520.11735941300003</v>
-      </c>
-      <c r="E22" s="12">
-        <v>457.71287572900002</v>
-      </c>
-      <c r="F22" s="17">
-        <v>901.96812386199997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="12">
-        <v>96.213052474700007</v>
-      </c>
-      <c r="D23" s="17">
-        <v>87.519496490099996</v>
-      </c>
-      <c r="E23" s="12">
-        <v>74.7960536179</v>
-      </c>
-      <c r="F23" s="17">
-        <v>129.75306477399999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="21">
-        <f>C22/60</f>
-        <v>13.061377351799999</v>
-      </c>
-      <c r="D24" s="22">
-        <f>D22/60</f>
-        <v>8.6686226568833344</v>
-      </c>
-      <c r="E24" s="21">
-        <f t="shared" ref="E24:F24" si="1">E22/60</f>
-        <v>7.6285479288166673</v>
-      </c>
-      <c r="F24" s="22">
-        <f t="shared" si="1"/>
-        <v>15.032802064366667</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0.29503299999999999</v>
-      </c>
-      <c r="D25" s="19">
-        <v>0.29936400000000002</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0.354821</v>
-      </c>
-      <c r="F25" s="19">
-        <v>5.0781800000000002E-2</v>
-      </c>
-      <c r="G25" s="20">
-        <f>SUM(C25:F25)</f>
-        <v>0.99999980000000011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="12">
-        <v>1088.3077422700001</v>
-      </c>
-      <c r="D26" s="13">
-        <v>557.20304698500001</v>
-      </c>
-      <c r="E26" s="12">
-        <v>811.03542881800001</v>
-      </c>
-      <c r="F26" s="13">
-        <v>515.617358491</v>
-      </c>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="12">
-        <v>94.145722080400006</v>
-      </c>
-      <c r="D27" s="13">
-        <v>92.485554389699999</v>
-      </c>
-      <c r="E27" s="12">
-        <v>77.587652701500005</v>
-      </c>
-      <c r="F27" s="13">
-        <v>101.31600853499999</v>
-      </c>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="21">
-        <f>C26/60</f>
-        <v>18.138462371166668</v>
-      </c>
-      <c r="D28" s="22">
-        <f t="shared" ref="D28:F28" si="2">D26/60</f>
-        <v>9.2867174497500002</v>
-      </c>
-      <c r="E28" s="21">
-        <f t="shared" si="2"/>
-        <v>13.517257146966667</v>
-      </c>
-      <c r="F28" s="22">
-        <f t="shared" si="2"/>
-        <v>8.5936226415166672</v>
-      </c>
-      <c r="G28" s="2"/>
+      <c r="Q29" t="s">
+        <v>21</v>
+      </c>
+      <c r="R29" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29" t="s">
+        <v>29</v>
+      </c>
+      <c r="T29" t="s">
+        <v>30</v>
+      </c>
+      <c r="W29" t="s">
+        <v>31</v>
+      </c>
+      <c r="X29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>0.164521</v>
+      </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="K31" s="10">
-        <v>0.122047</v>
-      </c>
-      <c r="L31" s="11">
-        <v>0.331181</v>
-      </c>
-      <c r="M31" s="10">
-        <v>0.20614199999999999</v>
-      </c>
-      <c r="N31" s="11">
-        <v>0.34062999999999999</v>
-      </c>
-      <c r="Q31" s="10">
-        <v>0.15909899999999999</v>
-      </c>
-      <c r="R31" s="11">
-        <v>0.277194</v>
-      </c>
-      <c r="S31" s="10">
-        <v>0.37766899999999998</v>
-      </c>
-      <c r="T31" s="11">
-        <v>0.18603900000000001</v>
-      </c>
-      <c r="V31" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="W31" s="15">
-        <v>0.29503299999999999</v>
-      </c>
-      <c r="X31" s="19">
-        <v>0.29936400000000002</v>
-      </c>
-      <c r="Y31" s="15">
-        <v>0.354821</v>
-      </c>
-      <c r="Z31" s="19">
-        <v>5.0781800000000002E-2</v>
+      <c r="C31">
+        <v>0.37936300000000001</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J32" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="K32" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" t="s">
-        <v>34</v>
-      </c>
-      <c r="M32" t="s">
-        <v>35</v>
-      </c>
-      <c r="N32" t="s">
-        <v>36</v>
-      </c>
-      <c r="P32" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R32" t="s">
-        <v>28</v>
-      </c>
-      <c r="S32" t="s">
-        <v>29</v>
-      </c>
-      <c r="T32" t="s">
-        <v>30</v>
-      </c>
-      <c r="W32" t="s">
-        <v>31</v>
-      </c>
-      <c r="X32" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>25</v>
+      <c r="C32">
+        <v>0.195358</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>0.26075900000000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.32049100000000003</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.42088999999999999</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.17816899999999999</v>
+      </c>
+      <c r="G5" s="29">
+        <v>8.0450199999999999E-2</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="17">
+        <f>SUM(D8:G8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="14">
+        <v>662.60920604399996</v>
+      </c>
+      <c r="E6" s="14">
+        <v>1106.6885266199999</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1044.2611865399999</v>
+      </c>
+      <c r="G6" s="31">
+        <v>995.61327878300006</v>
+      </c>
+      <c r="H6" s="37"/>
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="15">
+        <v>167.69423162300001</v>
+      </c>
+      <c r="E7" s="15">
+        <v>134.46526550199999</v>
+      </c>
+      <c r="F7" s="15">
+        <v>173.547293841</v>
+      </c>
+      <c r="G7" s="34">
+        <v>239.305464462</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.29192400000000002</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.223024</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0.33470800000000001</v>
+      </c>
+      <c r="G8" s="35">
+        <v>0.15034400000000001</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="17">
+        <f>SUM(D8:G8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="14">
+        <v>875.12653504599996</v>
+      </c>
+      <c r="E9" s="14">
+        <v>502.340510166</v>
+      </c>
+      <c r="F9" s="14">
+        <v>498.43620439199998</v>
+      </c>
+      <c r="G9" s="31">
+        <v>579.66675467799996</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="15">
+        <v>135.550463936</v>
+      </c>
+      <c r="E10" s="15">
+        <v>127.81676541500001</v>
+      </c>
+      <c r="F10" s="15">
+        <v>92.684008167100004</v>
+      </c>
+      <c r="G10" s="34">
+        <v>227.33604071600001</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.38412400000000002</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3.8850500000000003E-2</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.29897400000000002</v>
+      </c>
+      <c r="G11" s="35">
+        <v>0.27805200000000002</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="17">
+        <f>SUM(D11:G11)</f>
+        <v>1.0000005000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="37"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="14">
+        <v>801.82522400300002</v>
+      </c>
+      <c r="E12" s="14">
+        <v>563.53074292300005</v>
+      </c>
+      <c r="F12" s="14">
+        <v>516.66182150600002</v>
+      </c>
+      <c r="G12" s="31">
+        <v>1102.4851789300001</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="37"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15">
+        <v>87.773847053699996</v>
+      </c>
+      <c r="E13" s="15">
+        <v>169.528409092</v>
+      </c>
+      <c r="F13" s="15">
+        <v>106.637168738</v>
+      </c>
+      <c r="G13" s="34">
+        <v>95.573261337999995</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>